--- a/src/goats/significant_dates.xlsx
+++ b/src/goats/significant_dates.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sxyan\OneDrive\Documents\Github\Options-Backtesting-Python\tests\live_trader\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sxyan\OneDrive\Documents\Github\Options-Backtesting-Python\src\live\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97F41D03-A8DE-4B88-87FB-425572793C9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A59EBA8-1216-44E4-AEBD-68013B77DC87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{5B127225-11A8-4F36-9497-2D28A15E7E76}"/>
+    <workbookView xWindow="1125" yWindow="0" windowWidth="20010" windowHeight="15480" xr2:uid="{5B127225-11A8-4F36-9497-2D28A15E7E76}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -563,7 +563,7 @@
   <dimension ref="A1:G27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M14" sqref="M14"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -656,6 +656,9 @@
       <c r="A7" s="1">
         <v>45765</v>
       </c>
+      <c r="B7">
+        <v>-1</v>
+      </c>
       <c r="E7" t="s">
         <v>42</v>
       </c>
@@ -721,6 +724,9 @@
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>45705</v>
+      </c>
+      <c r="B13">
+        <v>-1</v>
       </c>
       <c r="E13" t="s">
         <v>43</v>
